--- a/Dummy.xlsx
+++ b/Dummy.xlsx
@@ -370,35 +370,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>

--- a/Dummy.xlsx
+++ b/Dummy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbalanra\Desktop\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbalanra\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -373,7 +373,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -395,10 +395,16 @@
       <c r="A3">
         <v>3</v>
       </c>
+      <c r="B3">
+        <v>33</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
+      </c>
+      <c r="B4">
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">

--- a/Dummy.xlsx
+++ b/Dummy.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbalanra\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Siva\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -370,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -411,6 +411,14 @@
       <c r="A5">
         <v>5</v>
       </c>
+      <c r="B5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
